--- a/MDT/Dienstenpassen.xlsx
+++ b/MDT/Dienstenpassen.xlsx
@@ -15,18 +15,15 @@
     <sheet name="SerieNummer" sheetId="6" r:id="rId6"/>
     <sheet name="VervangingAdhoc" sheetId="7" r:id="rId7"/>
     <sheet name="aangemaaktNAV" sheetId="8" r:id="rId8"/>
-    <sheet name="betreft" sheetId="9" r:id="rId9"/>
-    <sheet name="bron" sheetId="10" r:id="rId10"/>
-    <sheet name="eerder" sheetId="11" r:id="rId11"/>
-    <sheet name="pasNr" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="bron" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Aantal</t>
   </si>
@@ -97,9 +94,6 @@
     <t>[SerieNummer]</t>
   </si>
   <si>
-    <t>[SrcDatum]</t>
-  </si>
-  <si>
     <t>aangemaaktNAV</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>adres</t>
   </si>
   <si>
-    <t>betreft</t>
-  </si>
-  <si>
     <t>bron</t>
   </si>
   <si>
@@ -124,33 +115,18 @@
     <t>dragerVan~</t>
   </si>
   <si>
-    <t>eerder</t>
-  </si>
-  <si>
     <t>eindDatum</t>
   </si>
   <si>
-    <t>geprintOp</t>
-  </si>
-  <si>
     <t>houderVan</t>
   </si>
   <si>
-    <t>ingetrokkenNAV</t>
-  </si>
-  <si>
     <t>initielePin</t>
   </si>
   <si>
     <t>intrekkingsDatum</t>
   </si>
   <si>
-    <t>maxAantalPassen</t>
-  </si>
-  <si>
-    <t>pasNr</t>
-  </si>
-  <si>
     <t>pasNr~</t>
   </si>
   <si>
@@ -194,6 +170,15 @@
   </si>
   <si>
     <t>geldigTot</t>
+  </si>
+  <si>
+    <t>maxAantalCertificaten</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>beeindigd~</t>
   </si>
 </sst>
 </file>
@@ -538,7 +523,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,31 +545,31 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -621,10 +606,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>42370</v>
@@ -633,16 +618,16 @@
         <v>42370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -652,93 +637,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -755,7 +653,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +667,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,50 +701,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42005</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -874,13 +762,13 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,10 +787,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,10 +830,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,10 +869,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -994,10 +882,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,10 +894,10 @@
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1026,16 +914,16 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1055,16 +943,76 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
+      <c r="I3" s="1">
+        <v>42005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1082,41 +1030,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/MDT/Dienstenpassen.xlsx
+++ b/MDT/Dienstenpassen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="744" windowWidth="22428" windowHeight="8940"/>
+    <workbookView xWindow="420" yWindow="744" windowWidth="22428" windowHeight="8940" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,17 @@
     <sheet name="PasNummer" sheetId="5" r:id="rId5"/>
     <sheet name="SerieNummer" sheetId="6" r:id="rId6"/>
     <sheet name="VervangingAdhoc" sheetId="7" r:id="rId7"/>
-    <sheet name="aangemaaktNAV" sheetId="8" r:id="rId8"/>
-    <sheet name="bron" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
+    <sheet name="Aanvraag" sheetId="14" r:id="rId8"/>
+    <sheet name="aangemaaktNAV" sheetId="8" r:id="rId9"/>
+    <sheet name="bron" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Aantal</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Document</t>
   </si>
   <si>
-    <t>Intrekking</t>
-  </si>
-  <si>
     <t>NieuwePassen</t>
   </si>
   <si>
@@ -67,12 +65,6 @@
     <t>SerieNummer</t>
   </si>
   <si>
-    <t>VervangingAdhoc</t>
-  </si>
-  <si>
-    <t>VervangingVerlopen</t>
-  </si>
-  <si>
     <t>[Aanvraag]</t>
   </si>
   <si>
@@ -157,9 +149,6 @@
     <t>adres van terwolde</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -179,6 +168,24 @@
   </si>
   <si>
     <t>beeindigd~</t>
+  </si>
+  <si>
+    <t>[NieuwePassen]</t>
+  </si>
+  <si>
+    <t>Aanvr1</t>
+  </si>
+  <si>
+    <t>Cert1</t>
+  </si>
+  <si>
+    <t>SN0001</t>
+  </si>
+  <si>
+    <t>besluitRA</t>
+  </si>
+  <si>
+    <t>Besluit</t>
   </si>
 </sst>
 </file>
@@ -214,11 +221,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,34 +550,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -577,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -589,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -606,10 +614,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>42370</v>
@@ -618,16 +626,16 @@
         <v>42370</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -637,6 +645,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -653,7 +690,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,10 +701,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -715,10 +752,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,10 +768,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -759,21 +796,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -787,10 +824,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -814,15 +851,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -830,10 +867,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -846,22 +883,22 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -869,10 +906,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -882,93 +919,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="E3" s="1">
         <v>42005</v>
       </c>
     </row>
@@ -980,10 +981,76 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,10 +1060,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1009,39 +1076,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/MDT/Dienstenpassen.xlsx
+++ b/MDT/Dienstenpassen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="744" windowWidth="22428" windowHeight="8940" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="420" yWindow="744" windowWidth="22428" windowHeight="8940" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Certificaat" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,17 @@
     <sheet name="Organisatie" sheetId="4" r:id="rId4"/>
     <sheet name="PasNummer" sheetId="5" r:id="rId5"/>
     <sheet name="SerieNummer" sheetId="6" r:id="rId6"/>
-    <sheet name="VervangingAdhoc" sheetId="7" r:id="rId7"/>
-    <sheet name="Aanvraag" sheetId="14" r:id="rId8"/>
-    <sheet name="aangemaaktNAV" sheetId="8" r:id="rId9"/>
-    <sheet name="bron" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
+    <sheet name="Aanvraag" sheetId="14" r:id="rId7"/>
+    <sheet name="aangemaaktNAV" sheetId="8" r:id="rId8"/>
+    <sheet name="bron" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>Aantal</t>
   </si>
@@ -47,9 +46,6 @@
     <t>Document</t>
   </si>
   <si>
-    <t>NieuwePassen</t>
-  </si>
-  <si>
     <t>Organisatie</t>
   </si>
   <si>
@@ -170,9 +166,6 @@
     <t>beeindigd~</t>
   </si>
   <si>
-    <t>[NieuwePassen]</t>
-  </si>
-  <si>
     <t>Aanvr1</t>
   </si>
   <si>
@@ -186,6 +179,24 @@
   </si>
   <si>
     <t>Besluit</t>
+  </si>
+  <si>
+    <t>isNieuwePassen</t>
+  </si>
+  <si>
+    <t>isVervangingVerlopen</t>
+  </si>
+  <si>
+    <t>isVervangingAdhoc</t>
+  </si>
+  <si>
+    <t>isIntrekking</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terwolde </t>
   </si>
 </sst>
 </file>
@@ -550,34 +561,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -585,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -597,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -614,10 +625,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>42370</v>
@@ -626,16 +637,16 @@
         <v>42370</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -645,35 +656,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -701,10 +683,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -752,10 +734,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -768,10 +750,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,23 +776,26 @@
     <col min="4" max="4" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -822,12 +807,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -851,15 +839,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -867,10 +855,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -890,15 +878,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -906,10 +894,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -919,133 +907,101 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>42005</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4">
         <v>42005</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1060,10 +1016,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,10 +1032,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
